--- a/dataDir/models/Sku.xlsx
+++ b/dataDir/models/Sku.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -2101,110 +2101,6 @@
       </c>
       <c r="F64" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>snew</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SleepEase</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>hi again</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DreamWorks</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>20</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>las</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DreamWorks</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>C062</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DreamWorks</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>12as</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>21</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
